--- a/component/人形BOM_V2.0.xlsx
+++ b/component/人形BOM_V2.0.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Lab\humanoid_robot\component\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27A0776-2F54-4887-B6BF-F068A013D9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C860D96-C544-4931-A022-D49379A3837F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{41E09088-8C38-4084-9D76-2A1BC4A6D507}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{41E09088-8C38-4084-9D76-2A1BC4A6D507}"/>
   </bookViews>
   <sheets>
-    <sheet name="机构" sheetId="1" r:id="rId1"/>
-    <sheet name="电气" sheetId="2" r:id="rId2"/>
+    <sheet name="机构" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,7 +82,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>髋关节*2；</t>
+    <t>非标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髋关节轴承盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髋二级连接板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髋一级连接板*2；髋二级连接板*2；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髋关节轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非标-d10L11髋关节轴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髋三级连接板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿髋转接架侧板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿髋转接架连接板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿髋转接架底座</t>
+  </si>
+  <si>
+    <t>大腿主干_上板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大腿主干_右侧板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大腿主干_左侧板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大腿侧板连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大腿主干连接块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大腿电机轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非标-d5L40.5大腿板与电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膝盖上连杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上连杆大腿轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非标-d10L30大腿上连杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线电机固定端*4；上下连杆连接*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下连杆轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非标-d5L5上下连杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非标-d5L15.5上连杆与推杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若电机修改可能会变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大腿小腿轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下连杆小腿轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小腿主干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非标-d10L15大小腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非标-d10L1小腿下连杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚踝十字连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非标-d10L6踝关节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踝关节轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球铰脚底板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髋一级连接板*2；髋二级连接板*2；大腿板*4；上连杆*2；下连杆*4；小腿上端*8；小腿下端*4；脚踝十字连接*8；脚底板*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关节轴承</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,9 +272,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,56 +612,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB290F4-57F4-418F-9A48-8710830E15E0}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E086F474-5281-4D1B-84C0-890C6C60385A}">
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E086F474-5281-4D1B-84C0-890C6C60385A}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="71.4140625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="3.75" customWidth="1"/>
+    <col min="5" max="5" width="4.5" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="66.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -538,7 +648,7 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -547,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -555,13 +665,379 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4">
+        <v>635</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/component/人形BOM_V2.0.xlsx
+++ b/component/人形BOM_V2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Lab\humanoid_robot\component\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C860D96-C544-4931-A022-D49379A3837F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C61C52-6EC0-4C96-B720-8FB9E0221FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{41E09088-8C38-4084-9D76-2A1BC4A6D507}"/>
+    <workbookView xWindow="-21855" yWindow="6480" windowWidth="19050" windowHeight="11655" xr2:uid="{41E09088-8C38-4084-9D76-2A1BC4A6D507}"/>
   </bookViews>
   <sheets>
     <sheet name="机构" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,112 @@
   </si>
   <si>
     <t>关节轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQD6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小腿左侧电机安装版A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小腿右侧电机安装版A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膝盖下连杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小腿电机摇杆A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踝关节连杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻螺纹孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡簧槽能否加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小腿左侧定脚踝安装板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小腿右侧定脚踝安装板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴用挡圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB894-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB894-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔用挡圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB893-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BFB6806ZZ-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圆型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髋关节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +354,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -272,11 +393,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -613,15 +737,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E086F474-5281-4D1B-84C0-890C6C60385A}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="D36" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="3.75" customWidth="1"/>
     <col min="5" max="5" width="4.5" customWidth="1"/>
@@ -629,7 +753,7 @@
     <col min="7" max="7" width="66.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -663,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -674,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -685,7 +809,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -696,7 +820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -710,7 +834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -721,7 +845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -732,7 +856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -746,7 +870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -757,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -768,7 +892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -779,7 +903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -793,7 +917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -804,7 +928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -815,7 +939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -826,7 +950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -837,7 +961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -848,7 +972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -859,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -870,7 +994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -881,7 +1005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -892,7 +1016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -903,7 +1027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -914,7 +1038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4">
       <c r="B25" t="s">
         <v>26</v>
       </c>
@@ -925,7 +1049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
         <v>27</v>
       </c>
@@ -936,7 +1060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>29</v>
       </c>
@@ -947,97 +1071,236 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4">
       <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" t="s">
         <v>42</v>
       </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" t="s">
         <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
